--- a/data/test/IncDec-test-944601.xlsx
+++ b/data/test/IncDec-test-944601.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,27 +448,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The concern I have I have expressed it many times on the high cost of natural gas and not only for heating our homes or cooling our homes if you are in my area of the country but also for the feed stock for our petrochemical industry</t>
+          <t>We took a plant in Michigan called the Michigan Truck Plant which produced Expeditions and Navigators large SUVs and converted it into making small cars and now that plant makes Focus CMax hybrid CMax plugin hybrid Focus battery electric vehicle all in the same plant down the same line only place in the world where we do where that is done</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Energy prices soared and carbon pollution increased</t>
+          <t>But the good news here is that the shortterm energy markets appeared to adjust rather quickly to the collapse of the largest energy trading company in the world</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Should the interstate shipment of coal be stopped because of the pollution it causes</t>
+          <t>We had great debate over whether this administration the Obama administration is hostile to energy production on land offshore and on Federal lands etc and the argument that that is the case is not supported by the facts</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,27 +478,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>But it still leaves the rest of the number which is the 60 or 70 percent which has come from or will have to come from hydrocarbons using advanced technologies</t>
+          <t>I would also like to remind everyone that this is a pilot project a 2year pilot project which I think will give the Department of Energy adequate time to assess the situation and it certainly would be of benefit to our country</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Commission recently met with state regulators from regions that will be most affected by high natural gas prices to discuss best practices in state conservation and hedging programs</t>
+          <t>If you were to attempt to build a scrubber and I do know what scrubbers cost because I have put them on coalfired power plants and I have put them on big plants and I know that they dont go on little plants because the plants I used to take care of in many cases are now retired because they cant afford to put it and they are considerably larger than these plants</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fuel receipt and the transportation systems to be compatible with the currently NRC licensed storagetransportation systems then they could classify the fuel in those systems as nonstandard causing that fuel to lose its place in the DOEs fuel acceptance queue</t>
+          <t>Some products may not be available in your area for example but I am not sure of how a consumer would know which zone they are in as well as what the energy prices are in that part of the country</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>However the point of both the Minorities in Energy Initiative as well as my workforce bill is that it really shouldnt matter who is in the White House that the agency DOE has the affirmative responsibility to work on increasing opportunities for all</t>
+          <t>In the energy study that was conducted last summer after the price spikes like we saw in California they found that a 25 percent reduction in their usage at peak times would have saved Californians 700 million last summer</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>As potential vulnerabilities emerge in the Nations utility distribution infrastructure ensuring reliable sources of energy for our installations has become increasingly challenging</t>
+          <t>Everybody on this panel supports there being not just on stationary sources but on mobile sources like tailpipe emissions for cars and trucksthe industry and labor union that represents UAW supports a mandatory cap and trade system</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,37 +528,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Instead we develop runoftheriver hydro a smallscale hydro wind and wood waste power and they produced three times as many jobs</t>
+          <t>Four US States Minnesota Montana Idaho and North Dakota account for 75 percent of all the natural gas brought into the United States via pipeline</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>As we know natural gas prices have risen sharply and likely will not drop substantially until more production goes on line in the United States</t>
+          <t>We dont harness the electricity we can from natural gas we dont sell it we dont pull it up we dont benefit the economy from it</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Some products may not be available in your area for example but I am not sure of how a consumer would know which zone they are in as well as what the energy prices are in that part of the country</t>
+          <t>During the campaign the President proposed a doubling of the State Energy Program to 76 million and the Weatherization Program to 306 million</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The Electric Power Research Institute which is I believe an independent and objective research institution part of the electric power industry put on a forum in Washington where they brought all of the modelers who had actually produced analyses of the LiebermanWarner bill the Clean Air Task Force the Energy Information Administration the work that was sponsored by the National Association of Manufacturers Massachusetts Institute of Technology with their EPO model EPA and Charles River Associates</t>
+          <t>In any event I would like to say that I am pleased that our agenda has shifted from a debate over whether to abolish the Department of Energy or to sell off the Strategic Petroleum Reserve to a more prudent and national debate over the national energy policies</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mr Linn and Mr Duplessis obviously with this being the largest oil spill in the history of our country theres lots of media attention</t>
+          <t>There is a great controversy right now Congressman over the Environmental Protection Agencys proposed rules for particulate emissions from coal plants and also greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The amount of gasoline that can be supplied to a particular region may be inflexible in the short run because of various limitations on refining and transportation capabilities or product requirements unique to that region</t>
+          <t>Governor Corzine has made it clear that lowering energy prices is important for our economic Mr Shimkus</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,17 +588,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Primarily because of the growth in China and India for oil demand we believe oil prices will continue to increase which will place greater pressure on gasoline and diesel prices</t>
+          <t>But the problem is that even with this particular issue included with the high gas prices we are not seeing any correspondence between underlying costs and prices in the wholesale market</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Page 11 of your testimony you recommend that Congress require the Clean Air Scientific Advisory Committee CASAC to comply with the Clean Air Act Section 109d and advise the Administrator of any adverse public health welfare social economic or energy effects which may result from various strategies for attainment and maintenance of air quality standards</t>
+          <t>For example advanced nuclear technologies might be one thing that you could put into repower an existing fossil generating plant like that</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,37 +608,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>What we also do is allow forwhat the legislation does it allow for technology limits 60 percent I think to one technology 90 percent for two and what that is doing there is saying that although wind today is the cheapest form of renewable power generation ultimately because of these cost curves you want to induce more competition and to see oil prices continue to come down</t>
+          <t>You probably should think about doing the same thing with our national model energy code the IECC</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>I am pleased to report that last week the House overwhelmingly passed the Nuclear Waste Policy Amendments Act of 2018</t>
+          <t>Is that enough reliance or should we do modeling before we resume exploration and drilling in the Gulf of Mexico</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Oil prices are manipulated at the top by OPEC often for the express purpose of weakening competition including in the oil industry</t>
+          <t>Let me ask you point blank does it make sense for us to have a regulatory structure where it costs almost four times as much to license a hydropower plant as it costs to license a new natural gasfired plant</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fortunately I understand that FERC operations have returned to near normal having cleared much of that backlog allowing the commission to turn its attention towards a host of issues ranging from controversial changes to the RTO capacity markets to how new energy infrastructure projects should be evaluated under FERCs certificate policy</t>
+          <t>Secondly the volume of trading in the carbon market will be at least 300 times greater than the SO2 market</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,67 +648,67 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Well I am just in the research and analysis business but I would thinkand my friends in the industry can speak perhaps better but I think the biggest concern or two really one would be that the government is going to stand in the way of infrastructure projects that are needed to get investment in domestic oil and gas production and the second would be uncertainty about regulation of hydraulic fracturing going forward</t>
+          <t>Even using power from traditional coal plants to charge a plug in hybrid is environmentally superior for CO2 and criteria pollutants to driving a regular Toyota Prius</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>During the campaign the President proposed a doubling of the State Energy Program to 76 million and the Weatherization Program to 306 million</t>
+          <t>It is somewhat more complex and if you are familiar with how DOE is organized Mr Stupak the vast majority of work at the Department of Energy including our nuclear weapons work our research laboratories Mr Stupak</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I think its one of the parts of this whole conversation thats a bit disturbing in that to whatever degree the price of fuel is higher because of speculation its a limiting factor on us raising our taxes that we need to raise so that we can invest in infrastructure and offer some longterm solutions for our citizens</t>
+          <t>They have been in use for years in places such as Texas in order to achieve enhanced oil recovery</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Blending ethanol is common practice throughout the country and logistics for converting terminals is very straightforward</t>
+          <t>On September 21st EPA expanded this effort in order to minimize potential fuel supply disruptions caused by Hurricane Rita</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>We strongly support the need for a comprehensive energy policy that focuses on adequate supply sources to aid strategic industries such as ours</t>
+          <t>Blending ethanol is common practice throughout the country and logistics for converting terminals is very straightforward</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>The principal environmental benefits associated with coal gasification as compared to coal combustion processes are in the short term significantly lower emissions of serious air pollutants such as sulfur dioxide NOINFXINF and I should say almost virtual removal of volatile mercury</t>
+          <t>The Electric Power Research Institute which is I believe an independent and objective research institution part of the electric power industry put on a forum in Washington where they brought all of the modelers who had actually produced analyses of the LiebermanWarner bill the Clean Air Task Force the Energy Information Administration the work that was sponsored by the National Association of Manufacturers Massachusetts Institute of Technology with their EPO model EPA and Charles River Associates</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MERGERSCONVERGENCE MERGERS PUHCA restricts consolidations between electric and gas utilities operating in the same market again the SEC has been lax in enforcing this restriction</t>
+          <t>Mr Robo you mentioned that you are managing the largest solar bank in the world is that right</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,27 +718,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Activated carbon is a specially prepared product of coal or biomass that is able to adsorb many chemicals from gases or liquids</t>
+          <t>As Member of Congress from East Harris County and Houston Texas I have just literally hundreds of people who work offshore offshore Texas offshore literally all over the world and along with our infrastructure we still produce oil and natural gas in a very urbansuburban area but we also have refineries and chemical plants who need that product that is being produced</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nobody knows what theyre doing but they claim it has something to do with a gas pipeline</t>
+          <t>So you do acknowledge that using a lot of fuel does in fact create jobs</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>More recently while on the US Air Force Headquarters Staff I participated in developing and managing the response to the real world cyber attacks against the Department of Defense information infrastructure that came to be known as Solar Sunrise and Moonlight Maze</t>
+          <t>Well I am just in the research and analysis business but I would thinkand my friends in the industry can speak perhaps better but I think the biggest concern or two really one would be that the government is going to stand in the way of infrastructure projects that are needed to get investment in domestic oil and gas production and the second would be uncertainty about regulation of hydraulic fracturing going forward</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>It has been 30 years since Congress designated Nevadas Yucca Mountain as a secure site for our Nations nuclear wastewater</t>
+          <t>I am pointing out the title of this hearing is legislation to respond to the BP oil spill and yet I dont see anything in this bill that actually helps us address the problems we are dealing with today</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Again less American jobs more dependence on foreign oil</t>
+          <t>Nobody knows what theyre doing but they claim it has something to do with a gas pipeline</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,37 +768,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>You can obviously absorb excess spikes in natural gas prices for a while and indeed many have done that over the last number of years</t>
+          <t>I think what the President is most concerned about is that he would like to move the energy agenda forward</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Surrounded by 10 feet of polluted oilslick water without power or reliable communications the staff at Memorial worked for nearly five days to treat feed and evacuate patients families and local residents who sheltered in the hospital</t>
+          <t>The result has been policies that deter and forestall increased usage of natural gas which is after all the nations most environmentally benign and costeffective energy source</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>In any event I would like to say that I am pleased that our agenda has shifted from a debate over whether to abolish the Department of Energy or to sell off the Strategic Petroleum Reserve to a more prudent and national debate over the national energy policies</t>
+          <t>History is on the side of those who want to act on climate change those who believe in the power of American innovation and our ability to successfully meet any challenge and who look to the future rather than the past</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>In this case industry recommended that to improve the NSR program we should allow owners of a facility to avoid the requirements of the NSR program if they improve facility energy efficiency or if they invest in a project for pollution prevention or pollution control simply on those bases</t>
+          <t>The other waiver authority which you referenced is a general waiver authority where if the administrator can either be petitioned by a party or can on her own determine that the RFS implementation would create a severe economic harm to a region or a State and that the previous conversation we have been petitioned a couple of times and determined that again because of market dynamics and the demand that the refining industry has for ethanol that the statutory test simply was not met and we are not allowed to grant that waiver</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,27 +808,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I am pointing out the title of this hearing is legislation to respond to the BP oil spill and yet I dont see anything in this bill that actually helps us address the problems we are dealing with today</t>
+          <t>In addition we recently received an early site permit from the Nuclear Regulatory Commission which certifies that our site in Clinton Illinois where we operate one nuclear reactor meets all necessary criteria for construction of a new nuclear unit</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>For example if the fuel efficiency of our personal vehicle fleet was 42 miles per gallon today rather than 21 miles per gallon US oil demand would be lower by 4 million barrels per day oil markets would have spare capacity and the impact of any gasoline price spike would be far smaller</t>
+          <t>We know that Chinas use of coal and the world has grown from 20 percent to about 30 percent now and it is expected to get to use 40 percent of the worlds coal in the next 15 years or so we know that Chinas emissions have grown by 80 percent since 1990 and they are expected to grow another 65 percent by the year 2020</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>They must strike a demanding balance between first cost cost of operation and technical features to minimize energy consumption</t>
+          <t>We have partnerships throughout the United States and with universities with national labs with all kinds of differentand other companies as well looking at everything from hydrogen to of course batteries and electrification of the vehicles and what is happening with compact natural gas and everything else</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,17 +838,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Everybody on this panel supports there being not just on stationary sources but on mobile sources like tailpipe emissions for cars and trucksthe industry and labor union that represents UAW supports a mandatory cap and trade system</t>
+          <t>This bill sets out a national strategy to assist US clean energy technology companies with export assistance to find new markets for their products and services and to better compete in the international marketplace</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>I want to hear whats fair when you shut down a coalfired power plant and it destroys the fabric the economic basis to run a school system in a county when millions of dollars are lost</t>
+          <t>We may even get some pleasant surprises such as we recently experienced with the shale gas revolution</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,17 +858,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Recent AEP initiatives include Mountaineer Plants 2009 startup of the worlds first carbon capture and storage demonstration at a coal power plant and the commissioning of an ultrasupercritical John W Turk coal power plant one of the worlds most efficient coal power plants</t>
+          <t>Significant pillars of our program are deployment of nonCOINF2INF sources of generation like renewables and nuclear reduced COINF2INF emissions through efficiency and the COINF2INF capture from fossil fuels</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>We do have about 9000 megawatts of cogeneration facilities</t>
+          <t>Recently the Subcommittee received testimony it would take at least seven to nine years to just to begin transporting used fuel regardless when a site is available</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,37 +878,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>And you will catch some really good fish and some of the best eating you are going to find right there next to the oil rig</t>
+          <t>Every time DOE issues a new rule it issues a press release estimating the rules benefit in cost savings for consumers and energy savings for the Nation based on theoretical models</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>I will make a comment from the perspective of energy efficiency</t>
+          <t>Recent AEP initiatives include Mountaineer Plants 2009 startup of the worlds first carbon capture and storage demonstration at a coal power plant and the commissioning of an ultrasupercritical John W Turk coal power plant one of the worlds most efficient coal power plants</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>You heard about the domestic manufacturing of wind turbine components that has also increased dramatically over the last 5 years as the renewable standards have ramped up</t>
+          <t>We have got to have zero emissions coal if we are going to meet our needs if we are going to compete if we are going to rebuild America and also let us keep our efforts for clean nuclear energy as well</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>In addition we need to take into account potential threat to the security of gas deliveries to consumers that will occur if we place a greater demand on our production and pipeline delivery capabilities than we have resources to meet</t>
+          <t>Congressman to me the answer to your questions depends on what your view of future fossil fuel prices are</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>The commission has a stake in the national energy policy and has identified areas where new legislation would be helpful</t>
+          <t>Instead as the threat from climate change becomes more and more dire and the scientific consensus of the threat becomes even clearer we are having another hearing focused on the alleged war on coal</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>You guys are the guys who can make this happen because of your connection with mostlyyou have some friends over on my side but you have a lot of friends on the Democrat side and they are in charge and so I would plead with you and the other folks who are looking for expansion of energy opportunities the operating engineers the electricians that they hold out for a good bill that they are not going to lose their jobs</t>
+          <t>We doare very interested as I said in my remarks want to see the full investigation because we want to understand was there something else people were looking at that caused them to make the decisions they made as opposed to making the decisions that almost any of our drilling operations people would have made differently that led to the ultimate loss of the well</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Either Tippy dam in Michigan or the Bull Shoals dam and hydro project in Arkansas on the White River</t>
+          <t>We have been asking for a number of years for the Department of Energy to do the necessary investigations to start making those kinds of determinations and we dont yet have that information in place</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,27 +948,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Strong economic growth particularly in China and the United States is fueling a surge in oil demand</t>
+          <t>Through research and demonstration of hydrogen generation and storage technology we will be able to gain the necessary safety knowledge which will lead to data driven codes and standards that do not currently exist</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>These two projects represent the future of coal</t>
+          <t>In that case the question that I will find most important is Will moving to a highoctane fuel standard do a better job in incentivizing and creating market signals for advanced biofuels</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>In recent years we have seen the impact of relying almost exclusively on natural gas based plants for new generation tight gas supply higher prices and backlogged projects for natural gas based plants</t>
+          <t>Renewable fuel standard is putting 36 billion gallons of nongasoline into the gasoline and diesel supply through the next few decades</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,37 +978,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>This continuing improvement has been the result of more efficient engines emission control technologies and cleaner burning fuel</t>
+          <t>Now were focusing on climate tact and climate energy</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>They are the ones who bear the brunt of higher energy prices and supply disruptions</t>
+          <t>I look forward to working with you on these exciting new initiatives to take action on climate change and expand our clean energy economy</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>So to the extent the administration is supportive of incentives to increase these alternatives whether it be geothermal or solar or wind they can provide an extra cushion and certainly with a hydrosystem and wind projects allow us to store power as you know in the water and allow us to shape the power curve</t>
+          <t>In the first hearing this subcommittee had this Congress my constituent the manager of a local rural electric cooperativethat is a notforprofit entity for those who are in the businessand a former environmental officer at the Illinois Environmental Protection Agency testified that doing so would increase utility rates for again a notforprofit electricity company by 25 percent</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>But for the sake of our consumers our utility businesses and Americas entrepreneurs and innovators we as a Nation could take a better course of action and enact a national energy policy to begin the transition to a lowcarbon economy</t>
+          <t>The way this technology or what enables this is that we took the genes that encode enzymes that would transform the sugar into the fuels</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,37 +1018,37 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>It wasnt that long ago that we thought we were out of natural gas as well</t>
+          <t>CAFE standards have helped increase the average fuel economy of our lightduty vehicle fleet</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>For natural gas the market is strong and active</t>
+          <t>For example for an average family driving 2500 miles a month a 1 gallon runup in gasoline prices as we have seen in recent weeks takes 120 out of their monthly budget if they are driving vehicles that average 21 miles per gallon but it would only take 60 out of their budget if those vehicles average 42 miles per gallon which is within our technical capability</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Through the Recovery Act we are making hundred million dollar grants in grant funds available to help the transit industry to improve fuel efficiency and reduce emissions for bus rail cars and other transit equipment</t>
+          <t>That invisible oil slick is now causing the oceans to become acidic</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>but our ultimate vision is to establish leadership in hydrogen fuel cells</t>
+          <t>Thus because implementation of RFG will produce more NOINFXINF emissions than Georgias lowsulfur gasoline RFG may actually produce higher ozone values and adversely impact public health</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,17 +1058,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>I have introduced legislation with my friend Mr Doyle to make common sense reforms at the NRC to provide existing plants some relief but without a strong domestic industry how do we expect American technology and more importantly safety culture and nonproliferation standards to compete with staterun power companies like Russia and China</t>
+          <t>In San Joaquin Valley the stationary sources which include agriculture oil and gas production your ma and pa operations all the way to your biggest manufacturing they make up only 15 percent of the pollution now because we have imposed the toughest regulations in the nation on them</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Consumers determine energy consumption every day through their purchasing decisions and the use of the products they buy</t>
+          <t>About 20 some percent and yet their carbon footprint is how much more for that production</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>And does that make other forms of energy work better or does it replace them</t>
+          <t>He has added substantially to the states ability to deal with our current energy situation</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>The Chair would recognize the ranking member of the Energy and Air Quality Subcommittee Mr Boucher of Virginia</t>
+          <t>VW willfully and knowingly cheated having installed engine software in 480000 diesel vehicles to defeat emissions tests</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,57 +1098,57 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>I hope in my discussions with you today that that commitment on my part will come through to you in talking a little bit about what I plan to do and how I plan to bring my experience and my expertise that I have gained in the private sector in the nuclear industry over the years into this project to move it forward smartly in the time that I am in this job and that is my commitment to you</t>
+          <t>Does anybody believe that the coal industry should have the right to put unlimited amounts of carbon dioxide at zero cost into the atmosphere</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>We can all agree that we do need some oil and gas development</t>
+          <t>I know their program is what they are trying to develop there is also been using solar panels so they can go to areas without electricity and still be able to process water for families in that immediate area</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>The reference case includes the effects of several policies aimed at increasing energy efficiency in both enduse technologies and supply technologies including minimum efficiency standards and voluntary energy savings programs</t>
+          <t>So to the extent the administration is supportive of incentives to increase these alternatives whether it be geothermal or solar or wind they can provide an extra cushion and certainly with a hydrosystem and wind projects allow us to store power as you know in the water and allow us to shape the power curve</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>And then the third reason I think we have seen renaissance in the nuclear area is that the environmental benefits of nuclear energy are being recognized</t>
+          <t>These two projects represent the future of coal</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Contamination from industrial facilities pose a more troubling longterm concern with more than 40 oil spills recently reported in Louisiana by the Coast Guard and thousands of chemical containers spotted bubbling in the regions flood water</t>
+          <t>We have frequently analyzed the consequence of lower world oil prices on different regions of the world</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Were you involved in any communications with the White House to push the Department of Energy to speed this thing along</t>
+          <t>Each day more exploration and development activity in the Gulf is lost</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>We believe to create a truly competitive vibrant energy industry these constraints should be removed</t>
+          <t>The wood products industry is a leading user of wood fiber and producer and user of carbonneutral renewable biomass energy to run our plants</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AGA represents 185 local natural gas distribution companies which deliver natural gas to 50 million customers in the United States</t>
+          <t>As an integral part of their transmission systems interstate natural gas pipelines own and operate a majority of the natural gas storage capacity in the United States</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>This outdated physical integration requirement prevents utility companies from investing capital outside their geographic region shutting off a valuable potential source of domestic capital investment in needed energy facilities and ironically fostering the very kind of concentration in regional energy markets that FERC is trying to reduce</t>
+          <t>They have to be and I am wonderingyoure over at the meeting with the gas folks12000 peopleare there any topics that are being discussed specifically as to energy efficiency</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>And I visited Oregon Techs oneofakind geothermal plant in August and saw firsthand how they are taking advantage of great renewable resources in the Klamath Basin</t>
+          <t>Contamination from industrial facilities pose a more troubling longterm concern with more than 40 oil spills recently reported in Louisiana by the Coast Guard and thousands of chemical containers spotted bubbling in the regions flood water</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Joe Barton Chairman Committee on Energy and Commerce Thank you Mr Chairman for holding this hearing to determine the current status of the Alaska Natural Gas Pipeline</t>
+          <t>So if that were correct and I dont disagree with you on that coming from a coal State but if that is correct then why are we having policy that is moving us in that direction</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,27 +1208,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Id like to talk about one thing that largely did work and thats nuclear energy</t>
+          <t>For illustrative purposes 43 quads is equivalent tobullet Over 20 million short tons of coal or enough coal to fill a coal train of railroad cars almost 2000 miles longbullet 418 billion cubic feet of natural gasbullet Almost 35 billion gallons of gasoline or more than 10 days of US gasoline consumptionbullet Almost 10 hours of the entire worlds energy use based on consumption levels in 1996bullet Nearly half of the approximate annual primary consumption of any one of the following states Arizona Arkansas Colorado Iowa Kansas Mississippi or Oregon based on consumption levels in 1996 This 43 quads represents a 39 total annual savings in cooling and a 19 savings in heating or a total heat and cooling savings of approximately 25 billion per year by 2010 given an adoption baseline of 1996</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>We do need to streamline the regulatory process for liquefied LNG exports</t>
+          <t>We do have about 9000 megawatts of cogeneration facilities</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Mr Shimkus asked earlier whether climate legislation would raise gasoline and electricity prices</t>
+          <t>This outdated physical integration requirement prevents utility companies from investing capital outside their geographic region shutting off a valuable potential source of domestic capital investment in needed energy facilities and ironically fostering the very kind of concentration in regional energy markets that FERC is trying to reduce</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mr Stevens you mentioned in your testimony the challenge of the government policies that are picking winners and losers and you specifically mentioned the renewable fuel standards mandate for biomass fuels as a policy that could hurt the longterm sustainability of forests</t>
+          <t>This program would establish a unique partnership between government and industry to help ensure we meet midterm gas demand through the development of technically challenged but potentially prolific provinces</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,27 +1248,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>It is the utilities driving renewable growth and many other independent power producers driving renewable growth and we can take advantage of those independent power producers through very competitive RFPs and PPAs and certainly with our own facilities</t>
+          <t>I will make a comment from the perspective of energy efficiency</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>That invisible oil slick is now causing the oceans to become acidic</t>
+          <t>I want to hear whats fair when you shut down a coalfired power plant and it destroys the fabric the economic basis to run a school system in a county when millions of dollars are lost</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>I dont know that we are going to pick and choose the generation sources or the energy sources that is where the American peoplefor other policymakers</t>
+          <t>Last year the House included a provision in its energy bill requiring a Federal study into this boutique motor fuel issue</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,17 +1278,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>And three accelerate the deployment of clean energy infrastructure</t>
+          <t>Diesel is the way of the future and I am hopeful that its shortterm benefits will not be overlooked by the Administration or the Congress even as we examine longer term strategies</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>What I wanted to say was that we looked at this and did some computations in the study that we did at NERA and what we found is that using an oil export ban to try to limit field emissions or greenhouse gas emissions associated with fuel consumption is about the worst possible climate policy you could think of</t>
+          <t>To make the United States the best place in the world to manufacture and attract FDI we urge Congress and the administration more broadly to work together to create a national tax climate to promote manufacturing and embrace an alloftheabove approach to energy modernize and invest in infrastructure ensure that the benefits of regulations justify their cost implement commonsense legal reform reduce healthcare costs and ensure robust export opportunities for manufacturers in the United States including through an aggressive trade policy agenda have open markets and provides competitive export financing and works to ensure that our trading partners protect intellectual property and play by the rules</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,27 +1298,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>My testimony aligns with the following points America is facing two national security threats one around climate change and the other around the US nuclear power enterprise</t>
+          <t>And in fact even as we speak here this afternoon officials in Louisiana are still waitingstill waiting for the Federal Government to provide millions of feet in boom to approve an emergency permit to fullynot partiallyimplement their plan to dredge and build a new barrier island to prevent even more oil from reaching their marshes and wetlands</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Republicans claimed thenjust as they do nowthat the solution was to produce more oil domestically</t>
+          <t>More recently while on the US Air Force Headquarters Staff I participated in developing and managing the response to the real world cyber attacks against the Department of Defense information infrastructure that came to be known as Solar Sunrise and Moonlight Maze</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Likewise in Puerto Rico Hurricanes Irma and Maria uncovered the intensified issues associated with aging and inefficient energy infrastructure contaminated sites that are rapidly multiplying landfills that are already overflowing and possibly the most contaminated drinking water supply in the United States</t>
+          <t>In my testimony today I will describe the CFTCs oversight of the energy futures markets</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,27 +1328,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>When Mr Fawcett and maybe someone else was talking about the oil overseers after the American and Norwegian left and there was only the French and Russian and there was implication there that then they were being selfserving that is incorrect</t>
+          <t>Unfortunately due to nonmarket governmental forces giving preferential treatment to certain renewables two of these plants Byron and Dresden are now slated for closure</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Reducing emissions of carbon dioxide and other greenhouse gases is the right move to make but we should focus on that goal and not lose perspective</t>
+          <t>And you know if we look at emissions they really have to be looked at on a global scale</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>The Presidents own energy secretary the Presidents own energy secretary says Somehow we have to figure out how to boost the price of gasoline to the levels in Europe</t>
+          <t>Adoption of existing test procedures developed through the Energy Star program where energy conservation standards are proposed to be set based on Energy Star performance requirements is appropriate</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,27 +1358,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>This KXL scheme is equivalent to a 4 billionayear tax on the oil we are already getting from Canada with all the money going from American wallets and pocketbooks to oil companies</t>
+          <t>The changes would inappropriately expand FERCs natural gas authority attempt to undermine States rights and undermine the important role that other Federal and State agencies play in protecting natural resources for the public</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>This initiative requires relatively modest federal investment in nuclear energy research and development</t>
+          <t>When Mr Fawcett and maybe someone else was talking about the oil overseers after the American and Norwegian left and there was only the French and Russian and there was implication there that then they were being selfserving that is incorrect</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>There is no plausible scenario that I have ever seen where African carbon emissions are going to affect global emissions so if it is a global problem the problem is in the current emitting countries it is notyou know us denying Ghana two or three natural gas power plants is going to have absolutely zero affect globally</t>
+          <t>And are you aware of the significant concerns because I know I have heard a lot about it with the pending regulations and their impact on the affordability of wood wood heating</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,27 +1388,27 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Members of my local union located in Michigan spent months working on the TransAlaska pipeline which covers 800 miles and carries oil from the North Slope of Alaska to Valdez Alaska</t>
+          <t>Some of these accomplishments include the fact that as you mentioned Johnson Space Center with the help of FEMP technical assistance and through the use of our AFFECT which is Assisting Federal Facilities with Energy Conservation Technologies program through the use of our Federal Energy Efficiency Fund authority was able to provide 47 million of investment</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Because the answer is then if you take something like the Quadrennial Energy Review Mr Mullin</t>
+          <t>We must develop a coordinated approach to environmental and energy regulation and we must keep options open for all fuel sources especially coal the dark mineral that offers a light for our energy future</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Technological advancements on the electrical grid from transmission through end use have helped improve efficiency and reduced emissions</t>
+          <t>Moreover if abnormally warm weather prevails this summer the current market may become highly sensitive to demand particularly in the Western and South Central United States where natural gas is heavily used for power generation</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>For example the Chairman of the Crow Nation the tribal Nation in Montana has testified before congress that the importance of coal mining to the economy of the Crow Reservation cannot be overstated</t>
+          <t>The only real downside to nuclear energy is figuring out what to do with the waste</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,57 +1428,57 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>We are committed to working with Congress to explore ways to maintain or enhance environmental benefits of clean fuels programs while exploring ways to increase the flexibility of the fuels distribution infrastructure and minimize costs</t>
+          <t>As I said previously while our attention to electricity issues has been sporadic since the passage of the Energy Policy Act of 2005 there was a time when it seemed like this committee held hearings on the electric sector almost weekly</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Last fall we published a report Biofuels Issues and Trendsit is attached to my testimonyto provide an overview of the dynamics of production consumption trade in ethanol biodiesel and cellulosic fuels</t>
+          <t>Ed Whitfield This mornings hearing focuses on EPAs proposed Clean Power Plan which would impose federal limits on carbon dioxide emissions from each states electricity system</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Massachusettss long and distinguished record investing in energy efficiency is delivering great results</t>
+          <t>It goes on to say that the price of coal which fires half of the US power plants has doubled since last year largely because of surging energy use in countries such as China and India</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A more predictable rational and flexible air quality permit process including reforms to newsource review will allow for more investment in domestic facilities including carbon capture and a stronger domestic manufacturing base instead of production in other countries who dont share our countrys commitment to stewardship</t>
+          <t>Technological advancements on the electrical grid from transmission through end use have helped improve efficiency and reduced emissions</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>But the idea is to produce or to construct a coal gasification facility that will simultaneously produce electricity and produce hydrogen</t>
+          <t>I am just concerned that EPA has taken the environmental cop off the beat and will go on polluting without fear of repercussions</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>And then finally we should encompass principles that do not harm American energy workers that help to enhance their training and capacity to increase their economic success and security</t>
+          <t>S 389 extends the existing credit and creates a second drilling window that also applies to heavy oil</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,17 +1488,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Leading Democrats are calling for the elimination of nuclear powerfortunately not our Chairman herebut nearly every single major candidate wants to eliminate or phase out nuclear power</t>
+          <t>Electricity generated from coal is used in all 50 states</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>There has been widespread media reports and even some comments by congressional leaders of gasoline price gouging by gasoline marketers in the wake of Katrina</t>
+          <t>Just as an illustration to make it as clear as I can with a chart that looks fairly complex I will try to simplify it at just how dramatic the changes are that I refer to in thein what is happening today in clean energy</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,47 +1508,47 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Thus because implementation of RFG will produce more NOINFXINF emissions than Georgias lowsulfur gasoline RFG may actually produce higher ozone values and adversely impact public health</t>
+          <t>As we develop a comprehensive national energy policy efficiency and conservation are definitely part of what needs to be a comprehensive plan that also needs to include the development of our own natural resources to reduce our dependence on foreign oil</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>You probably should think about doing the same thing with our national model energy code the IECC</t>
+          <t>And so figuring out a mechanism to make sure we can do the work necessary to be able to fully use hydropower is critical</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>That is why he established an interagency working group focused on creating economic opportunities for communities impacted by the shift away from fossil fuels</t>
+          <t>We greatly appreciate the bipartisan support for coal in the Committee as reflected in both the Housepassed version of HR</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Now I will disagree slightly in part with Mr Waxman on market forces being simply prices because sometimes energy feed stock sources are regional</t>
+          <t>This will result in higherthannormal gas commodity prices even if the winter is relatively mild</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>The Report notes that The energy burden on lowincome households as a proportion of income is four times greater than for other American households</t>
+          <t>Muir is concerned only about carbon</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,17 +1558,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WANO is organized through regional centers and includes every operating nuclear electric plant in the world</t>
+          <t>Reducing emissions of carbon dioxide and other greenhouse gases is the right move to make but we should focus on that goal and not lose perspective</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>OK And I also understand that there is a market issue in terms of how the New England plants buy their gas</t>
+          <t>Our work on energy issues has described some of the consequences of hurricanes on petroleum marketssuch as rapid gasoline price increases</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,37 +1578,37 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Approximately 10 years ago Beaver County started to see the effects of the technological advancements that made developing the Marcellus Shale possible</t>
+          <t>At the end of May working gas in storage stood about 38 percent below endofMay 2002 levels and 28 percent below the previous 5year average</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>The consensus decision making rule Prior witnesses at these hearings have suggested that the consensus requirement of the 661 Committee made it difficult to establish effective oversight of the Oil for Food program</t>
+          <t>Because electricity markets are connected by wires different pollution standards promote a survival of the filthiest market where the power plants that are the dirtiest run harder because they can slightly underbid cleaner generators</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>So for instance one of my companies Sun Drop Fuels has adopted a different model so they went to Chesapeake a natural gas company because they are going to use natural gas as part of the feedstock in their plant</t>
+          <t>I dont know that we are going to pick and choose the generation sources or the energy sources that is where the American peoplefor other policymakers</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Last year the House included a provision in its energy bill requiring a Federal study into this boutique motor fuel issue</t>
+          <t>Now I will disagree slightly in part with Mr Waxman on market forces being simply prices because sometimes energy feed stock sources are regional</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,37 +1618,37 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mr Robo you mentioned that you are managing the largest solar bank in the world is that right</t>
+          <t>And I hope that we can find new ways to use coal even cleaner than we are using it today</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>So againit came up in the other hearing and I do feel obligated to point outthere is a limit to how much energy you can import if everyone is using their system to the maximum</t>
+          <t>Id like to talk about one thing that largely did work and thats nuclear energy</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>She thought everybody had asthma because they are all breathing that diesel smoke and toxic fumes</t>
+          <t>OK And I also understand that there is a market issue in terms of how the New England plants buy their gas</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Some of these accomplishments include the fact that as you mentioned Johnson Space Center with the help of FEMP technical assistance and through the use of our AFFECT which is Assisting Federal Facilities with Energy Conservation Technologies program through the use of our Federal Energy Efficiency Fund authority was able to provide 47 million of investment</t>
+          <t>These criteria include balancing reasonable cost burdens encouraging lowcarbon technologies providing a uniform national policy and finding the most costeffective ways to reduce emissions without choosing winners and losers</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,17 +1658,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>The American Gas Association represents 192 local energy utility companies that deliver natural gas to more than 53 million homes businesses and industries throughout the United States</t>
+          <t>There has been widespread media reports and even some comments by congressional leaders of gasoline price gouging by gasoline marketers in the wake of Katrina</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>I mean I dont want to be an expert in gas cans to be able to use that product</t>
+          <t>If we want the industry to be capturing carbon in 2020 shouldnt we be telling them about that now in order to create the market signal</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A big driver for renewable energy development has been the willingness of States to forge ahead despite the absence of federal leadership</t>
+          <t>The experts EPA and the National Academy of Sciences have already drawn the conclusion that especially in the short run when we need greenhouse gas reduction the most corn ethanol is increasing emissions by increasing the amount of carbon that is released into the atmosphere</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Municipal utilities in my Tennessee district saw the cost of natural gas soar to near 10 per million Btus on the spot market over the winter</t>
+          <t>Second I do think that green coal and carbon sequestration is the most important single breakthrough we could make because the objective fact is China is adding one coalburning plant a week</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Were very pleased to be here to discuss the final report of the Commission to Review the Effectiveness of the National Energy Laboratories</t>
+          <t>Mr Caruso your testimony focuses on the supply side of natural gas</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,17 +1708,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>LIPA is recognized as a leader in conservation and efficiency measurespromoting conservation installing of new energy efficient lighting and appliances and using energy efficient technologies and renewables such as geothermal heat pumps and photovoltaicswith the implementation of a fiveyear 170 million Clean Energy Initiative</t>
+          <t>I think one of the things just to add is our COINF2INF emissions from energy consumption are down 13 percent since 2007 so this is already actually happening</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CAFE standards have helped increase the average fuel economy of our lightduty vehicle fleet</t>
+          <t>We talked about earlier and some of my colleagues talked about the carbon sequestration and how it is notthe technology is not there at this point in time</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,17 +1728,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Putting the current situation in a broader more positive perspective however the US has some of the cleanest and least costly fuels in the world</t>
+          <t>I think it is possible on a bipartisan basis to do things that actually further the science further the research into carbon capture and conversion accelerate the use of existing technologies like nuclear power some of the alternative energy sources that we know are zero emissions wind power new hydropower things like that</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>If the best and the brightest of our young people continue to see that the oil and gas business is a losing proposition we wont get that 32 trillion</t>
+          <t>What I wanted to say was that we looked at this and did some computations in the study that we did at NERA and what we found is that using an oil export ban to try to limit field emissions or greenhouse gas emissions associated with fuel consumption is about the worst possible climate policy you could think of</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,17 +1748,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>That being said Dr Friedmann how do you react to the allegations that the administration is waging this war on coal</t>
+          <t>The mismanagement for example of nuclear waste clean up processes has been an ongoing Department of Energy problem across several Administrations</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>bullet Allowing economies of scale in manufacturing installation operation and maintenance of renewable energy facilities</t>
+          <t>Our investments are designed to deliver and promote reliable marketavailable policies practices and life cycle cost effective technologies that will permanently reduce a trajectory of US energy demand growth and carbon footprint of the built environment while maintaining strong economic growth</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,27 +1768,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Forcing fuel switching from coal to natural gas is a tool of compliance by contrast maximizes the costs of compliance</t>
+          <t>What type of an impact would meeting the goals of the Renewable Fuel Standard have on jobs here in America</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Whether surface temperatures will increase due to radiativelyactive emissions is not clear</t>
+          <t>Well we have already issued a New Source Performance Standard that captures the volatile organic compounds in the emissions from unconventional gas when hydrofracking happens</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>In terms of the policies of Alberta there are policies in place to recognize that the upfront costs of developing oil sands are very very high</t>
+          <t>bullet Allowing economies of scale in manufacturing installation operation and maintenance of renewable energy facilities</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,17 +1798,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Unfortunately due to nonmarket governmental forces giving preferential treatment to certain renewables two of these plants Byron and Dresden are now slated for closure</t>
+          <t>I have been downstairs at the hearing on subsidies and price gouging on gas prices and we will be bouncing back and forth all day</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Our testing of mercury emissions indicates removal rates well in excess of the 90 percent required by the Mercury and Air Toxic Standard Rule</t>
+          <t>For example todays efficiency standards for medium and heavyduty trucks are reducing emissions from those vehicles</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,41 +1818,51 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>We found in this testing that the bag house at Gaston is not big enough to accommodate the amount of activated carbon needed to consistently achieve 90 mercury control for even just one week of testing</t>
+          <t>You are quoting an unnamed energy publication</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Well the World Resources Institute doesnt take a particular position on this specific issue but certainly by reducing these upstream methane emissions we could ensure that natural gas is lowercarbonemittingor lowergreenhousegasemitting than coal or oil when oil and diesel fuel is used for transportation</t>
+          <t>This initiative requires relatively modest federal investment in nuclear energy research and development</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>For example low NOINFXINF burner technology developed through the program is now on 75 percent of US coal fired power plants</t>
+          <t>Notably the agencies appearing today along with many others signed an MOU in April seeking to establish a cooperative relationship and expedite authorizations of major infrastructure projects including hydropower facilities</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>We have got to have zero emissions coal if we are going to meet our needs if we are going to compete if we are going to rebuild America and also let us keep our efforts for clean nuclear energy as well</t>
+          <t>Utilization of the Foothills system through Canada under the Northern Pipeline Act provides regulatory structure and certainty for Alaskan gas as no new legislation or regulations are needed in Canada</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>And I know that GE in my district is working on advanced battery manufacturing that will address storage capacity for renewables</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
